--- a/PCB/presupuestos/Piranometros/presupuesto.xlsx
+++ b/PCB/presupuestos/Piranometros/presupuesto.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UCM Investigación\Compras\Piranómetros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\UCM Investigacion\Compras\Piranometros\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="SolarNode" localSheetId="0">Hoja1!$A$1:$G$42</definedName>
+    <definedName name="SolarNode" localSheetId="0">Hoja1!$B$1:$F$41</definedName>
   </definedNames>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>Ref (PCB)</t>
   </si>
@@ -38,15 +38,9 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Hand Soldering</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Footprint</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -192,6 +186,45 @@
   </si>
   <si>
     <t>https://www.mouser.es/productdetail/vishay/crcw0805100kjnea?qs=sGAEpiMZZMvdGkrng054txEw7b1YnvGuWk57hmbzOr0%3D</t>
+  </si>
+  <si>
+    <t>Comprado</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>SW2 SW3</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>R4 R6</t>
   </si>
 </sst>
 </file>
@@ -274,17 +307,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -308,7 +335,721 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="107">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -785,634 +1526,716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S21"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="1025" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="1024" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="L2" s="9">
+        <f>C2*H2</f>
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="M2" s="9">
+        <f>C2*I2*5</f>
+        <v>1.635</v>
+      </c>
+      <c r="N2" s="9">
+        <f>C2*J2*10</f>
+        <v>3.27</v>
+      </c>
+      <c r="P2">
+        <f>SUM(L2:L44)</f>
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(M2:M44)</f>
+        <v>35.020000000000003</v>
+      </c>
+      <c r="R2">
+        <f>SUM(N2:N44)</f>
+        <v>62.739999999999995</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>17</v>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2.17</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2.17</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="L3" s="9">
+        <f>C3*H3</f>
+        <v>2.17</v>
+      </c>
+      <c r="M3" s="9">
+        <f>C3*I3*5</f>
+        <v>10.85</v>
+      </c>
+      <c r="N3" s="9">
+        <f>C3*J3*10</f>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="M3" s="11">
-        <f t="shared" ref="M3:M14" si="0">B3*I3</f>
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="N3" s="11">
-        <f t="shared" ref="N3:N14" si="1">B3*J3*5</f>
-        <v>1.635</v>
-      </c>
-      <c r="O3" s="11">
-        <f t="shared" ref="O3:O14" si="2">B3*K3*10</f>
-        <v>3.27</v>
-      </c>
-      <c r="Q3">
-        <f>SUM(M3:M45)</f>
-        <v>7.0039999999999996</v>
-      </c>
-      <c r="R3">
-        <f>SUM(N3:N45)</f>
-        <v>35.020000000000003</v>
-      </c>
-      <c r="S3">
-        <f>SUM(O3:O45)</f>
-        <v>62.739999999999995</v>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1.19</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1.19</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="L4" s="9">
+        <f>C4*H4</f>
+        <v>1.19</v>
+      </c>
+      <c r="M4" s="9">
+        <f>C4*I4*5</f>
+        <v>5.9499999999999993</v>
+      </c>
+      <c r="N4" s="9">
+        <f>C4*J4*10</f>
+        <v>10.700000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="11">
-        <v>2.17</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2.17</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1.94</v>
-      </c>
-      <c r="M4" s="11">
-        <f t="shared" si="0"/>
-        <v>2.17</v>
-      </c>
-      <c r="N4" s="11">
-        <f t="shared" si="1"/>
-        <v>10.85</v>
-      </c>
-      <c r="O4" s="11">
-        <f t="shared" si="2"/>
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1.19</v>
-      </c>
-      <c r="J5" s="14">
-        <v>1.19</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1.07</v>
-      </c>
-      <c r="M5" s="11">
-        <f t="shared" si="0"/>
-        <v>1.19</v>
-      </c>
-      <c r="N5" s="11">
-        <f t="shared" si="1"/>
-        <v>5.9499999999999993</v>
-      </c>
-      <c r="O5" s="11">
-        <f t="shared" si="2"/>
-        <v>10.700000000000001</v>
+      <c r="G5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.502</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.502</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="L5" s="9">
+        <f>C5*H5</f>
+        <v>0.502</v>
+      </c>
+      <c r="M5" s="9">
+        <f>C5*I5*5</f>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="N5" s="9">
+        <f>C5*J5*10</f>
+        <v>4.1499999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>20</v>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0.502</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0.502</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="M6" s="11">
-        <f t="shared" si="0"/>
-        <v>0.502</v>
-      </c>
-      <c r="N6" s="11">
-        <f t="shared" si="1"/>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="O6" s="11">
-        <f t="shared" si="2"/>
-        <v>4.1499999999999995</v>
+      <c r="G6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.153</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.153</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.153</v>
+      </c>
+      <c r="L6" s="9">
+        <f>C6*H6</f>
+        <v>0.153</v>
+      </c>
+      <c r="M6" s="9">
+        <f>C6*I6*5</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="N6" s="9">
+        <f>C6*J6*10</f>
+        <v>1.53</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="G7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="9">
         <v>0.153</v>
       </c>
-      <c r="J7" s="11">
+      <c r="I7" s="9">
         <v>0.153</v>
       </c>
-      <c r="K7" s="11">
+      <c r="J7" s="9">
         <v>0.153</v>
       </c>
-      <c r="M7" s="11">
-        <f t="shared" si="0"/>
+      <c r="L7" s="9">
+        <f>C7*H7</f>
         <v>0.153</v>
       </c>
-      <c r="N7" s="11">
-        <f t="shared" si="1"/>
+      <c r="M7" s="9">
+        <f>C7*I7*5</f>
         <v>0.76500000000000001</v>
       </c>
-      <c r="O7" s="11">
-        <f t="shared" si="2"/>
+      <c r="N7" s="9">
+        <f>C7*J7*10</f>
         <v>1.53</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0.153</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0.153</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0.153</v>
-      </c>
-      <c r="M8" s="11">
-        <f t="shared" si="0"/>
-        <v>0.153</v>
-      </c>
-      <c r="N8" s="11">
-        <f t="shared" si="1"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="O8" s="11">
-        <f t="shared" si="2"/>
-        <v>1.53</v>
+      <c r="G8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.434</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.434</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.434</v>
+      </c>
+      <c r="L8" s="9">
+        <f>C8*H8</f>
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="M8" s="9">
+        <f>C8*I8*5</f>
+        <v>4.34</v>
+      </c>
+      <c r="N8" s="9">
+        <f>C8*J8*10</f>
+        <v>8.68</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>17</v>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="G9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="L9" s="9">
+        <f>C9*H9</f>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="M9" s="9">
+        <f>C9*I9*5</f>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="N9" s="9">
+        <f>C9*J9*10</f>
+        <v>3.3200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L10" s="9">
+        <f>C10*H10</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M10" s="9">
+        <f>C10*I10*5</f>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="N10" s="9">
+        <f>C10*J10*10</f>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="2">
-        <v>0.434</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.434</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.434</v>
-      </c>
-      <c r="M9" s="11">
-        <f t="shared" si="0"/>
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="N9" s="11">
-        <f t="shared" si="1"/>
-        <v>4.34</v>
-      </c>
-      <c r="O9" s="11">
-        <f t="shared" si="2"/>
-        <v>8.68</v>
+      <c r="H11" s="1">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="9">
+        <f>C11*H11</f>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="M11" s="9">
+        <f>C11*I11*5</f>
+        <v>1.615</v>
+      </c>
+      <c r="N11" s="9">
+        <f>C11*J11*10</f>
+        <v>3.19</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="2">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="M10" s="11">
-        <f t="shared" si="0"/>
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="N10" s="11">
-        <f t="shared" si="1"/>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="O10" s="11">
-        <f t="shared" si="2"/>
-        <v>3.3200000000000003</v>
+      <c r="H12" s="1">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="L12" s="9">
+        <f>C12*H12</f>
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="M12" s="9">
+        <f>C12*I12*5</f>
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="N12" s="9">
+        <f>C12*J12*10</f>
+        <v>5.88</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J11" s="2">
+      <c r="I13" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="K11" s="3">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="M11" s="11">
-        <f t="shared" si="0"/>
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="N11" s="11">
-        <f t="shared" si="1"/>
-        <v>0.42500000000000004</v>
-      </c>
-      <c r="O11" s="11">
-        <f t="shared" si="2"/>
-        <v>0.37</v>
+      <c r="J13" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L13" s="9">
+        <f>C13*H13</f>
+        <v>0.17</v>
+      </c>
+      <c r="M13" s="9">
+        <f>C13*I13*5</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="N13" s="9">
+        <f>C13*J13*10</f>
+        <v>0.72</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="11">
-        <f t="shared" si="0"/>
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="N12" s="11">
-        <f t="shared" si="1"/>
-        <v>1.615</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" si="2"/>
-        <v>3.19</v>
-      </c>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="M13" s="11">
-        <f t="shared" si="0"/>
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="N13" s="11">
-        <f t="shared" si="1"/>
-        <v>3.6549999999999998</v>
-      </c>
-      <c r="O13" s="11">
-        <f t="shared" si="2"/>
-        <v>5.88</v>
-      </c>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="2">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="M14" s="11">
-        <f t="shared" si="0"/>
-        <v>0.17</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="1"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="O14" s="11">
-        <f t="shared" si="2"/>
-        <v>0.72</v>
-      </c>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
     </row>
-    <row r="17" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
     </row>
-    <row r="18" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="21" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+    <row r="20" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:D43">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="EXT"/>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="SMD"/>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="THT"/>
+  <conditionalFormatting sqref="D2:D42">
+    <cfRule type="containsText" dxfId="34" priority="8" operator="containsText" text="EXT"/>
+    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="SMD"/>
+    <cfRule type="containsText" dxfId="32" priority="10" operator="containsText" text="THT"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H6:H43">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="www.digikey.es"/>
+  <conditionalFormatting sqref="G2 G5:G42">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D43">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="N"/>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Y"/>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="www.digikey.es"/>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="www.tme.eu"/>
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="www.mouser.es"/>
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="www.digikey.es"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="www.tme.eu"/>
-    <cfRule type="containsText" dxfId="1" priority="14" operator="containsText" text="www.mouser.es"/>
-    <cfRule type="containsText" dxfId="0" priority="15" operator="containsText" text="www.digikey.es"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+      <formula>"PEDIDO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+      <formula>"SI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"SMD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"THT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"EXT"</formula>
+    </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="H4" r:id="rId2"/>
-    <hyperlink ref="H5" r:id="rId3"/>
-    <hyperlink ref="H6" r:id="rId4"/>
-    <hyperlink ref="H7" r:id="rId5"/>
-    <hyperlink ref="H8" r:id="rId6"/>
-    <hyperlink ref="H9" r:id="rId7"/>
-    <hyperlink ref="H10" r:id="rId8"/>
-    <hyperlink ref="H11" r:id="rId9"/>
-    <hyperlink ref="H12" r:id="rId10"/>
-    <hyperlink ref="H13" r:id="rId11"/>
-    <hyperlink ref="H14" r:id="rId12"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="G8" r:id="rId7"/>
+    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G11" r:id="rId10"/>
+    <hyperlink ref="G12" r:id="rId11"/>
+    <hyperlink ref="G13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
